--- a/Bases_Ancine/Público, Renda e Número de Lançamentos por Tipo de Distribuidora 2009 a 2018.xlsx
+++ b/Bases_Ancine/Público, Renda e Número de Lançamentos por Tipo de Distribuidora 2009 a 2018.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\SAM\CEC\1.Site\CINEMA\TABELA E GRÁFICO\Distribuição\2018\arquivos de publicação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipeclau\Documents\OPE\OPE_Imapcta\Bases_Ancine\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8450143D-BAD3-49B4-8B06-F68A6B00789D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2201" sheetId="2" r:id="rId1"/>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -582,9 +583,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 3 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -19138,20 +19139,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" style="12" customWidth="1"/>
-    <col min="2" max="5" width="22.85546875" style="9" customWidth="1"/>
-    <col min="6" max="11" width="22.85546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="50.33203125" style="12" customWidth="1"/>
+    <col min="2" max="5" width="22.88671875" style="9" customWidth="1"/>
+    <col min="6" max="11" width="22.88671875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -19166,14 +19167,14 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="41"/>
       <c r="B3" s="68">
         <v>2018</v>
@@ -19206,7 +19207,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="67" t="s">
         <v>0</v>
       </c>
@@ -19241,7 +19242,7 @@
         <v>112670935</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="45" t="s">
         <v>1</v>
       </c>
@@ -19276,7 +19277,7 @@
         <v>85996359</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="45" t="s">
         <v>2</v>
       </c>
@@ -19311,7 +19312,7 @@
         <v>26358499</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
         <v>3</v>
       </c>
@@ -19344,7 +19345,7 @@
         <v>316077</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="46" t="s">
         <v>6</v>
       </c>
@@ -19379,7 +19380,7 @@
         <v>16075429</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="50" t="s">
         <v>1</v>
       </c>
@@ -19414,7 +19415,7 @@
         <v>10181957</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="50" t="s">
         <v>2</v>
       </c>
@@ -19449,7 +19450,7 @@
         <v>5577395</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="50" t="s">
         <v>3</v>
       </c>
@@ -19480,7 +19481,7 @@
         <v>316077</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="46" t="s">
         <v>9</v>
       </c>
@@ -19515,7 +19516,7 @@
         <v>96595506</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="50" t="s">
         <v>1</v>
       </c>
@@ -19550,7 +19551,7 @@
         <v>75814402</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="50" t="s">
         <v>2</v>
       </c>
@@ -19585,7 +19586,7 @@
         <v>20781104</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="50" t="s">
         <v>3</v>
       </c>
@@ -19602,7 +19603,7 @@
       <c r="J15" s="52"/>
       <c r="K15" s="53"/>
     </row>
-    <row r="16" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="46" t="s">
         <v>4</v>
       </c>
@@ -19637,7 +19638,7 @@
         <v>969796083.33999991</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="50" t="s">
         <v>1</v>
       </c>
@@ -19672,7 +19673,7 @@
         <v>741722837.70000005</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="50" t="s">
         <v>2</v>
       </c>
@@ -19707,7 +19708,7 @@
         <v>225433086.61999986</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="50" t="s">
         <v>3</v>
       </c>
@@ -19740,7 +19741,7 @@
         <v>2640159.02</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="46" t="s">
         <v>7</v>
       </c>
@@ -19775,7 +19776,7 @@
         <v>131923170.44999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="50" t="s">
         <v>1</v>
       </c>
@@ -19810,7 +19811,7 @@
         <v>81661927.450000003</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="50" t="s">
         <v>2</v>
       </c>
@@ -19845,7 +19846,7 @@
         <v>47621083.979999989</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="50" t="s">
         <v>3</v>
       </c>
@@ -19876,7 +19877,7 @@
         <v>2640159.02</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
@@ -19911,7 +19912,7 @@
         <v>837872912.8900001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="50" t="s">
         <v>1</v>
       </c>
@@ -19946,7 +19947,7 @@
         <v>660060910.25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="50" t="s">
         <v>2</v>
       </c>
@@ -19981,7 +19982,7 @@
         <v>177812002.64000008</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="50" t="s">
         <v>3</v>
       </c>
@@ -19998,7 +19999,7 @@
       <c r="J27" s="58"/>
       <c r="K27" s="59"/>
     </row>
-    <row r="28" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="46" t="s">
         <v>5</v>
       </c>
@@ -20033,7 +20034,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="50" t="s">
         <v>1</v>
       </c>
@@ -20068,7 +20069,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="50" t="s">
         <v>2</v>
       </c>
@@ -20103,7 +20104,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="50" t="s">
         <v>3</v>
       </c>
@@ -20132,7 +20133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="46" t="s">
         <v>8</v>
       </c>
@@ -20167,7 +20168,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="50" t="s">
         <v>1</v>
       </c>
@@ -20202,7 +20203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -20237,7 +20238,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="50" t="s">
         <v>3</v>
       </c>
@@ -20264,7 +20265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="46" t="s">
         <v>11</v>
       </c>
@@ -20299,7 +20300,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="50" t="s">
         <v>1</v>
       </c>
@@ -20334,7 +20335,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="60" t="s">
         <v>2</v>
       </c>
@@ -20369,7 +20370,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" s="13" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="60" t="s">
         <v>3</v>
       </c>
@@ -20386,7 +20387,7 @@
       <c r="J39" s="62"/>
       <c r="K39" s="63"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -20399,7 +20400,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:25" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
         <v>14</v>
       </c>
@@ -20428,7 +20429,7 @@
       <c r="X41" s="40"/>
       <c r="Y41" s="40"/>
     </row>
-    <row r="42" spans="1:25" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>19</v>
       </c>
@@ -20440,7 +20441,7 @@
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:25" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>20</v>
       </c>
@@ -20452,15 +20453,15 @@
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:25" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
     </row>
-    <row r="46" spans="1:25" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:25" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>12</v>
       </c>
@@ -20475,7 +20476,7 @@
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
     </row>
-    <row r="47" spans="1:25" s="77" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" s="77" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>17</v>
       </c>
@@ -20493,7 +20494,7 @@
       <c r="M47" s="76"/>
       <c r="O47" s="78"/>
     </row>
-    <row r="48" spans="1:25" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>15</v>
       </c>
@@ -20511,7 +20512,7 @@
       <c r="M48" s="32"/>
       <c r="O48" s="34"/>
     </row>
-    <row r="49" spans="1:25" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:25" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>13</v>
       </c>
@@ -20529,13 +20530,13 @@
       <c r="M49" s="32"/>
       <c r="O49" s="34"/>
     </row>
-    <row r="50" spans="1:25" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:25" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
     </row>
-    <row r="51" spans="1:25" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:25" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="82" t="s">
         <v>18</v>
       </c>
@@ -20544,12 +20545,12 @@
       <c r="I51" s="81"/>
       <c r="J51" s="81"/>
     </row>
-    <row r="52" spans="1:25" s="35" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:25" s="35" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -20571,35 +20572,35 @@
       <c r="X53" s="11"/>
       <c r="Y53" s="18"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
